--- a/Luban/Datas/ui_widget_config.xlsx
+++ b/Luban/Datas/ui_widget_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\UnityProject\Jam101_urp_gf\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1652BEA8-496B-45FA-B171-9C29B6F32369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE477C8-C601-4537-AFCA-54245976968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="4410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,17 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroCard</t>
+  </si>
+  <si>
+    <t>HeroCardWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄卡片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -526,17 +537,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,6 +731,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Datas/ui_widget_config.xlsx
+++ b/Luban/Datas/ui_widget_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE477C8-C601-4537-AFCA-54245976968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA41F2-034D-465B-BA4D-A4CE4039609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3765" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,66 @@
   </si>
   <si>
     <t>英雄卡片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfoWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attrib</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttribWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具小格子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCellWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopGoods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店道具信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopGoodsWidget</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,17 +597,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -742,9 +802,64 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Datas/ui_widget_config.xlsx
+++ b/Luban/Datas/ui_widget_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA41F2-034D-465B-BA4D-A4CE4039609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69734C90-D4F9-4C98-B238-88B9C04A7E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3765" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>ShopGoodsWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleSeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间座位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleSeatWidget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间列表一栏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleRoomCell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleRoomCellWidget</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -597,18 +621,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -857,6 +881,28 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
